--- a/Experiment_results/xlsx_format/for_color.xlsx
+++ b/Experiment_results/xlsx_format/for_color.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC35112-ECB5-4016-8CA0-F97437966A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8B4901-4EF9-4134-B953-5412586396C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Repeat_Closest</t>
   </si>
   <si>
-    <t>naïve</t>
-  </si>
-  <si>
     <t>train</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>naive</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,10 +418,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -429,7 +429,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -437,7 +437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -445,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -453,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,7 +469,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -525,7 +525,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment_results/xlsx_format/for_color.xlsx
+++ b/Experiment_results/xlsx_format/for_color.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ДИПЛОМНЫЙ проект\результаты экспериментов\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8B4901-4EF9-4134-B953-5412586396C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5F357B-51C4-4027-8260-333B060482FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,13 +75,13 @@
     <t>finetune</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>naive</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>model</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,7 +418,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
@@ -525,7 +525,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
